--- a/Cost Breakdown.xlsx
+++ b/Cost Breakdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackhorton/Documents/MIT/15.093_Optimization/Project/Opt-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EAE939-EDBE-4E49-957E-511FBA9D34E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF063E15-58D8-214C-819C-69B5730456E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{B201AD40-0783-2140-867E-02AC67F2C450}"/>
   </bookViews>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC545FA-0D54-E84B-BA93-7A33E7D83326}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
